--- a/docs/event.xlsx
+++ b/docs/event.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -26,49 +26,75 @@
     <t>str</t>
   </si>
   <si>
-    <t>あるところに、一人の女の子と4匹のネコが住んでいました。</t>
-  </si>
-  <si>
-    <t>ある朝、女の子が目を覚ますと、4匹のネコがいなくなってしまいます。</t>
-  </si>
-  <si>
-    <t>慌てて探し回ったところ、ネコたちは村の外れにあるダンジョンに入り込んでしまったそうです。</t>
-  </si>
-  <si>
-    <t>そのダンジョンは悪魔が住むと言われる、とても危険なところです。</t>
-  </si>
-  <si>
-    <t>女の子は恐怖で立ちすくみますが、ネコを探すためダンジョンに入ることを決意します。</t>
+    <t>あるところに、&lt;br&gt;
+一人の女の子と4匹のネコが住んでいました。</t>
+  </si>
+  <si>
+    <t>ある朝、女の子が目を覚ますと、&lt;br&gt;
+4匹のネコがいなくなってしまいます。</t>
+  </si>
+  <si>
+    <t>慌てて探し回ったところ、&lt;br&gt;
+ネコたちは村の外れにあるダンジョンに&lt;br&gt;
+入っていったそうです。</t>
+  </si>
+  <si>
+    <t>そのダンジョンはおそろしい悪魔が住むと言われる、&lt;br&gt;
+とても危険なところです。</t>
+  </si>
+  <si>
+    <t>女の子は恐怖で立ちすくみますが、&lt;br&gt;
+ネコを探すため、ダンジョンに入ることを決意します。</t>
   </si>
   <si>
     <t>■結末</t>
   </si>
   <si>
-    <t>ダンジョンの奥深くで、女の子は無事に4匹のネコを見つけ出しました。</t>
-  </si>
-  <si>
-    <t>女の子は「なぜこんなところに入っていったの？」とネコたちに聞きます。</t>
-  </si>
-  <si>
-    <t>ネコは「みゃあ」と鳴いて、奥へと進んでいきました。</t>
-  </si>
-  <si>
-    <t>女の子がついて行くと、そこには見事な装飾の宝箱があります。</t>
+    <t>ダンジョンの奥深くで、&lt;br&gt;
+女の子は無事に4匹のネコを見つけ出しました。</t>
+  </si>
+  <si>
+    <t>女の子は&lt;br&gt;
+「なぜこんなところに入っていったの？」&lt;br&gt;
+とネコたちに聞きます。</t>
+  </si>
+  <si>
+    <t>ネコは「みゃあ」と鳴いて、&lt;br&gt;
+奥へと進んでいきました。</t>
+  </si>
+  <si>
+    <t>女の子がついて行くと、&lt;br&gt;
+そこには見事な装飾の宝箱があります。</t>
   </si>
   <si>
     <t>「これは……、もしかして宝石がたくさん詰まったお宝？！」</t>
   </si>
   <si>
-    <t>女の子は恐る恐る宝箱を開きます。しかし、中にあるのは小さなマタタビの木でした。</t>
+    <t>女の子はドキドキして宝箱を開きます。&lt;br&gt;
+しかし、中にあるのは小さなマタタビの木でした。</t>
+  </si>
+  <si>
+    <t>「……」</t>
   </si>
   <si>
     <t>女の子は不思議に思って、それを持ち帰ります。</t>
   </si>
   <si>
-    <t>しかしそのマタタビは、遠く離れたところにいるネコをも魅了する伝説のマタタビだったのです。</t>
-  </si>
-  <si>
-    <t>そうして、次の日から村中のネコが女の子の部屋に集まってきて、ネコだらけになってしまいましたとさ。</t>
+    <t>しかしそのマタタビは、&lt;br&gt;
+遠く離れたところにいるネコをも魅了する&lt;br&gt;
+伝説のマタタビだったのです。</t>
+  </si>
+  <si>
+    <t>このアイテムは&lt;br&gt;
+かつて、世界を恐怖のどん底に陥れた&lt;br&gt;
+ネコ大魔神さえもおとなしくさせたという……。</t>
+  </si>
+  <si>
+    <t>それはさておき数日後。</t>
+  </si>
+  <si>
+    <t>女の子の家には村中のネコが集まってきて、&lt;br&gt;
+ネコだらけになってしまいましたとさ。</t>
   </si>
   <si>
     <t>めでたし、めでたし。</t>
@@ -162,7 +188,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -176,9 +202,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1454,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1458,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
+    <row r="3" ht="29.95" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1466,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1">
+    <row r="4" ht="29.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
+    <row r="5" ht="44.95" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1482,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1">
+    <row r="6" ht="29.95" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1490,7 +1513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1">
+    <row r="7" ht="29.95" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1506,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1">
+    <row r="9" ht="29.95" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1514,7 +1537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1">
+    <row r="10" ht="44.95" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1522,7 +1545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1">
+    <row r="11" ht="29.95" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1530,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1">
+    <row r="12" ht="29.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1546,7 +1569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1">
+    <row r="14" ht="29.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1566,22 +1589,24 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
+      <c r="B16" t="s" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="44.95" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="44.95" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1589,7 +1614,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="29.95" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="3">
         <v>19</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/event.xlsx
+++ b/docs/event.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -26,21 +26,36 @@
     <t>str</t>
   </si>
   <si>
-    <t>あるところに、&lt;br&gt;
-一人の女の子と4匹のネコが住んでいました。</t>
+    <t>むかしむかし、あるところに……。</t>
+  </si>
+  <si>
+    <t>一人の女の子と&lt;br&gt;
+4匹のネコが住んでいました。</t>
   </si>
   <si>
     <t>ある朝、女の子が目を覚ますと、&lt;br&gt;
 4匹のネコがいなくなってしまいます。</t>
   </si>
   <si>
-    <t>慌てて探し回ったところ、&lt;br&gt;
+    <t>女の子はあわてて、&lt;br&gt;
+ネコたちが行きそうな場所を探し回りますが、&lt;br&gt;
+見つかりません。</t>
+  </si>
+  <si>
+    <t>村の人の話によると、&lt;br&gt;
 ネコたちは村の外れにあるダンジョンに&lt;br&gt;
 入っていったそうです。</t>
   </si>
   <si>
-    <t>そのダンジョンはおそろしい悪魔が住むと言われる、&lt;br&gt;
+    <t>しかし、そこはおそろしい悪魔が棲むと言われる、&lt;br&gt;
 とても危険なところです。</t>
+  </si>
+  <si>
+    <t>女の子はダンジョンの前まで来ました。</t>
+  </si>
+  <si>
+    <t>そのダンジョンは人を寄せ付けない、&lt;br&gt;
+禍々しい気配を放っています。</t>
   </si>
   <si>
     <t>女の子は恐怖で立ちすくみますが、&lt;br&gt;
@@ -188,7 +203,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -202,6 +217,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1454,7 +1472,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1481,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="29.95" customHeight="1">
+    <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1497,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="44.95" customHeight="1">
+    <row r="5" ht="29.95" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="29.95" customHeight="1">
+    <row r="6" ht="44.95" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1513,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="29.95" customHeight="1">
+    <row r="7" ht="44.95" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1521,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
+    <row r="8" ht="29.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1529,7 +1547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="29.95" customHeight="1">
+    <row r="9" ht="20" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="44.95" customHeight="1">
+    <row r="10" ht="29.95" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1553,68 +1571,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="29.95" customHeight="1">
+    <row r="12" ht="20" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="4">
-        <v>13</v>
-      </c>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="29.95" customHeight="1">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" ht="20" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="4">
-        <v>15</v>
-      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="4">
-        <v>16</v>
-      </c>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="44.95" customHeight="1">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" ht="20" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="44.95" customHeight="1">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" ht="20" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="4">
-        <v>19</v>
-      </c>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="29.95" customHeight="1">
@@ -1622,15 +1626,103 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="44.95" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="29.95" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="29.95" customHeight="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="3">
         <v>22</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="29.95" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="44.95" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" ht="44.95" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" ht="29.95" customHeight="1">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/event.xlsx
+++ b/docs/event.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -85,8 +85,10 @@
     <t>「これは……、もしかして宝石がたくさん詰まったお宝？！」</t>
   </si>
   <si>
-    <t>女の子はドキドキして宝箱を開きます。&lt;br&gt;
-しかし、中にあるのは小さなマタタビの木でした。</t>
+    <t>女の子はドキドキして宝箱を開きます。</t>
+  </si>
+  <si>
+    <t>しかし、中にあるのは小さなマタタビの木でした。</t>
   </si>
   <si>
     <t>「……」</t>
@@ -1472,7 +1474,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1661,7 +1663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="29.95" customHeight="1">
+    <row r="25" ht="20" customHeight="1">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="44.95" customHeight="1">
+    <row r="28" ht="20" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="29.95" customHeight="1">
+    <row r="31" ht="20" customHeight="1">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1723,6 +1725,14 @@
       </c>
       <c r="B32" t="s" s="4">
         <v>26</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/event.xlsx
+++ b/docs/event.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -110,11 +110,28 @@
     <t>それはさておき数日後。</t>
   </si>
   <si>
-    <t>女の子の家には村中のネコが集まってきて、&lt;br&gt;
+    <t>伝説のマタタビの力は、&lt;br&gt;
+すっかり、村中のネコたちを魅了しまいます。&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>そして、女の子の家には村中のネコが集まってきて、&lt;br&gt;
 ネコだらけになってしまいましたとさ。</t>
   </si>
   <si>
     <t>めでたし、めでたし。</t>
+  </si>
+  <si>
+    <t>……。</t>
+  </si>
+  <si>
+    <t>だー！！</t>
+  </si>
+  <si>
+    <t>ネコたちばっかり得して、&lt;br&gt;
+私はなにも良いことないじゃない！！</t>
+  </si>
+  <si>
+    <t>おしまい</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1491,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1703,7 +1720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1">
+    <row r="30" ht="44.95" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1719,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" ht="20" customHeight="1">
+    <row r="32" ht="29.95" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1727,12 +1744,52 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1">
+    <row r="33" ht="29.95" customHeight="1">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
         <v>27</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="29.95" customHeight="1">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/event.xlsx
+++ b/docs/event.xlsx
@@ -124,11 +124,12 @@
     <t>……。</t>
   </si>
   <si>
-    <t>だー！！</t>
+    <t>だーーーーーーーーーーーーーーーーーーーーーー&lt;br&gt;
+ーーーーーーーーーーーーーーー！！！！！！！！</t>
   </si>
   <si>
     <t>ネコたちばっかり得して、&lt;br&gt;
-私はなにも良いことないじゃない！！</t>
+私はなにも良いことないじゃないの！！</t>
   </si>
   <si>
     <t>おしまい</t>
@@ -1768,7 +1769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" ht="20" customHeight="1">
+    <row r="36" ht="29.95" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
